--- a/documents/courses seedf.xlsx
+++ b/documents/courses seedf.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\VHL 25\HapoLearn\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5EA048-C783-49CE-A1CF-0F904D3F718F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC5A307-5322-48CF-93BE-A31BB984217C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="3330" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3105" yWindow="1590" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Thông tin khóa học</t>
   </si>
@@ -28,42 +28,15 @@
     <t>Tên khóa học</t>
   </si>
   <si>
-    <t>Khóa học Javascript cho người mới bắt đầu</t>
-  </si>
-  <si>
     <t>#Lập trình</t>
   </si>
   <si>
-    <t>Khóa học mạng máy tính từ cơ bản đến nâng cao</t>
-  </si>
-  <si>
-    <t>Khóa học Tiếng Nhật từ cơ bản đến nâng cao</t>
-  </si>
-  <si>
-    <t>Khóa học photoshop thần thánh từ A tới Z cho học sinh</t>
-  </si>
-  <si>
-    <t>Khóa học tiếng Anh cho người mới bắt đầu</t>
-  </si>
-  <si>
-    <t>Khóa học lập trình PHP cho người mới bắt đầu</t>
-  </si>
-  <si>
     <t>Ảnh</t>
   </si>
   <si>
     <t>https://yt3.googleusercontent.com/ytc/AGIKgqOYsoFvXc8r3B5KcJuDm_uhe6cvoeXIft4YgXTB=s900-c-k-c0x00ffffff-no-rj</t>
   </si>
   <si>
-    <t>https://www.php.net/images/meta-image.png</t>
-  </si>
-  <si>
-    <t>https://tenten.vn/tin-tuc/wp-content/uploads/2022/06/word-image-6.jpeg</t>
-  </si>
-  <si>
-    <t>https://preply.com/wp-content/uploads/2019/02/How-to-learn-Japanese-blog-2.png</t>
-  </si>
-  <si>
     <t>Mô tả</t>
   </si>
   <si>
@@ -71,6 +44,9 @@
   </si>
   <si>
     <t>Danh mục ID</t>
+  </si>
+  <si>
+    <t>Khóa học Javascript cho người mới bắt đầu (test)</t>
   </si>
 </sst>
 </file>
@@ -130,13 +106,13 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -452,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -468,97 +444,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -567,13 +488,8 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{7EC8B4B0-B20E-47DD-818F-C49D98178D72}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{F97BF716-DE0B-4C58-B331-40617B2D6DC6}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{AB18C998-6EBD-45A5-A3C9-78C46A620614}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{F8939A2C-66D2-4980-BEC0-BEDA3946EB9D}"/>
-    <hyperlink ref="D7" r:id="rId5" xr:uid="{1E68A383-09B5-425C-8CAC-475675A7877A}"/>
-    <hyperlink ref="D8" r:id="rId6" xr:uid="{DD6B1816-2EA8-4277-83B2-74830FBD9303}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>